--- a/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Provincia-trans_orig.xlsx
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2467</v>
+        <v>2477</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.326175207008283</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8245269130317311</v>
+        <v>0.827977237754779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>2178</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4178</v>
+        <v>4086</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.424189400587878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09754445217467529</v>
+        <v>0.09826050288359632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8138823409103256</v>
+        <v>0.7958828929049074</v>
       </c>
     </row>
     <row r="5">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2453</v>
+        <v>2479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3291642939890975</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8197597886693897</v>
+        <v>0.8285775467275495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>1925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4113</v>
+        <v>3988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3749174783672124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08663545480048952</v>
+        <v>0.06975567973712518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8010679841402032</v>
+        <v>0.7766930692430233</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3446604990026196</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.838056149116875</v>
+        <v>0.8361852205286566</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3070</v>
+        <v>3205</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2008931210449095</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5978987225641453</v>
+        <v>0.6242700420310423</v>
       </c>
     </row>
     <row r="7">
@@ -1024,16 +1024,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5914</v>
+        <v>6966</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08115889260634952</v>
+        <v>0.08115889260634954</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.353748660915786</v>
+        <v>0.4167161697119624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1042,19 +1042,19 @@
         <v>2072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4629</v>
+        <v>4520</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3161415558505767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08568940587391172</v>
+        <v>0.0853132484977604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7063532909265441</v>
+        <v>0.6896264249191069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1063,19 +1063,19 @@
         <v>3429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8018</v>
+        <v>8423</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1473398726197058</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0406817741131888</v>
+        <v>0.04215135740055048</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3445267512822355</v>
+        <v>0.3619543925627288</v>
       </c>
     </row>
     <row r="9">
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7268</v>
+        <v>7574</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1615799326791082</v>
+        <v>0.1615799326791083</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4347859441026884</v>
+        <v>0.4530504653008391</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2958</v>
+        <v>3434</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1102296720474878</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4512520152253776</v>
+        <v>0.5238833436310473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1134,19 +1134,19 @@
         <v>3424</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8717</v>
+        <v>8117</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1471175441538331</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03159006223444096</v>
+        <v>0.0303374734701679</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3745642853275957</v>
+        <v>0.3487935448326884</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>12659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8111</v>
+        <v>8037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15623</v>
+        <v>15531</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7572611747145421</v>
+        <v>0.7572611747145424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4851875363063884</v>
+        <v>0.4807514413008617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9345749839917837</v>
+        <v>0.9290331710679944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1184,19 +1184,19 @@
         <v>3760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1766</v>
+        <v>1611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5724</v>
+        <v>5625</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5736287721019355</v>
+        <v>0.5736287721019356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2694161326691336</v>
+        <v>0.2457514594926855</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8733697250382298</v>
+        <v>0.8582274329196198</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1205,19 +1205,19 @@
         <v>16419</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10983</v>
+        <v>10895</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20234</v>
+        <v>20435</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7055425832264614</v>
+        <v>0.7055425832264611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4719514922980721</v>
+        <v>0.4681605912969322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8694674344002383</v>
+        <v>0.8780977057675807</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2214</v>
+        <v>2894</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0459394455488814</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.206813336349139</v>
+        <v>0.2702792159526067</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1330,19 +1330,19 @@
         <v>4702</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2692</v>
+        <v>2408</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6407</v>
+        <v>6361</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6758883663108837</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3868776088285668</v>
+        <v>0.3461039526365605</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9208902342920176</v>
+        <v>0.9143483179367747</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1351,19 +1351,19 @@
         <v>5194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2556</v>
+        <v>2684</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8370</v>
+        <v>8678</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2940607714985973</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1446836163733141</v>
+        <v>0.1519647591131981</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4738499789046472</v>
+        <v>0.4912850700134932</v>
       </c>
     </row>
     <row r="13">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4374</v>
+        <v>4153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08007561542684404</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4085432821034721</v>
+        <v>0.3879116021969153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1404,16 +1404,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3434</v>
+        <v>3495</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1640498142564667</v>
+        <v>0.1640498142564666</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4936177383772497</v>
+        <v>0.5023239056278752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1422,19 +1422,19 @@
         <v>1999</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5520</v>
+        <v>5299</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1131509789562673</v>
+        <v>0.1131509789562672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02971278253487618</v>
+        <v>0.02961141156468174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3124941431894508</v>
+        <v>0.3000101235375081</v>
       </c>
     </row>
     <row r="14">
@@ -1451,7 +1451,7 @@
         <v>9357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5908</v>
+        <v>6506</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>10706</v>
@@ -1460,7 +1460,7 @@
         <v>0.8739849390242744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5517971354576897</v>
+        <v>0.6077393759740511</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3364</v>
+        <v>2936</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1600618194326497</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4835750601196329</v>
+        <v>0.4220600452727016</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1493,19 +1493,19 @@
         <v>10470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6610</v>
+        <v>7043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13805</v>
+        <v>13689</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5927882495451355</v>
+        <v>0.5927882495451353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3742251814208373</v>
+        <v>0.3987245136748385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7815650757637511</v>
+        <v>0.7749866758657484</v>
       </c>
     </row>
     <row r="15">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6084</v>
+        <v>5735</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.199878502644385</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5657840199216128</v>
+        <v>0.5332512384779523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1618,19 +1618,19 @@
         <v>5409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1347</v>
+        <v>1388</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9091</v>
+        <v>9287</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4718852565531156</v>
+        <v>0.4718852565531158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1174980466401077</v>
+        <v>0.1211019916688389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7930938059849028</v>
+        <v>0.8101484073295749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1639,19 +1639,19 @@
         <v>7559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3153</v>
+        <v>3487</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12743</v>
+        <v>12643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3402195294017096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1419378119040751</v>
+        <v>0.1569451269150349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5735478603912548</v>
+        <v>0.5690506458961887</v>
       </c>
     </row>
     <row r="17">
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3594</v>
+        <v>3616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04688149707464672</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3135184808516731</v>
+        <v>0.3154218906990721</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2929</v>
+        <v>2887</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02418836054925344</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1318135352001448</v>
+        <v>0.1299462692973095</v>
       </c>
     </row>
     <row r="18">
@@ -1731,7 +1731,7 @@
         <v>8605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4670</v>
+        <v>5013</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>10754</v>
@@ -1740,7 +1740,7 @@
         <v>0.8001214973556149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4342151233421237</v>
+        <v>0.46614977859074</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1752,19 +1752,19 @@
         <v>5516</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1824</v>
+        <v>1709</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9957</v>
+        <v>9831</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4812332463722377</v>
+        <v>0.4812332463722376</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1590884752113547</v>
+        <v>0.1491314723866601</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8686019604935792</v>
+        <v>0.8576422383920806</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1773,19 +1773,19 @@
         <v>14121</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8660</v>
+        <v>8872</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18440</v>
+        <v>18280</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6355921100490369</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3897756864084422</v>
+        <v>0.3993540901383453</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8299890826427785</v>
+        <v>0.8227794874307066</v>
       </c>
     </row>
     <row r="19">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1736</v>
+        <v>2448</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2029466248550309</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7093063061920951</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2531</v>
+        <v>2515</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2548948735871516</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6947308312708763</v>
+        <v>0.6902805252438298</v>
       </c>
     </row>
     <row r="21">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1825</v>
+        <v>1957</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1041701147795609</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5009760070292962</v>
+        <v>0.5371196922771881</v>
       </c>
     </row>
     <row r="22">
@@ -2011,7 +2011,7 @@
         <v>1951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2448</v>
@@ -2020,7 +2020,7 @@
         <v>0.7970533751449691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2906936938079048</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2053,19 +2053,19 @@
         <v>2335</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3321</v>
+        <v>3280</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6409350116332875</v>
+        <v>0.6409350116332876</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1997374687747717</v>
+        <v>0.2080609287274433</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.911602753989733</v>
+        <v>0.9003631867404626</v>
       </c>
     </row>
     <row r="23">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2659</v>
+        <v>2629</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1647136607877079</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4356811359904932</v>
+        <v>0.4307843007777108</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2225</v>
+        <v>2170</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.20006079453652</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6717441083068261</v>
+        <v>0.6550948983157167</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2199,19 +2199,19 @@
         <v>1668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4252</v>
+        <v>4082</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1771511526504538</v>
+        <v>0.1771511526504539</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05473351275067021</v>
+        <v>0.05049360347514842</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4515961057076713</v>
+        <v>0.4335093739830561</v>
       </c>
     </row>
     <row r="25">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3032</v>
+        <v>2760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1555228658022667</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4967822043305659</v>
+        <v>0.4522118349678691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6483265921611866</v>
+        <v>0.6482573414664844</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2270,19 +2270,19 @@
         <v>1647</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3816</v>
+        <v>3740</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1749363241254688</v>
+        <v>0.1749363241254689</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04515199403907395</v>
+        <v>0.04892442953500152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4052163233781017</v>
+        <v>0.3971767727570064</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>4149</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2426</v>
+        <v>2085</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5602</v>
+        <v>5617</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6797634734100254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3974577762772861</v>
+        <v>0.3417110364314567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.917850340696013</v>
+        <v>0.9203016671804286</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2320,19 +2320,19 @@
         <v>1952</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3012</v>
+        <v>3038</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5892436315742537</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1485334346632689</v>
+        <v>0.1335925076676444</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9089983313271689</v>
+        <v>0.9168841533038155</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2341,19 +2341,19 @@
         <v>6101</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3578</v>
+        <v>3750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7840</v>
+        <v>8154</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6479125232240772</v>
+        <v>0.6479125232240776</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3799810827522994</v>
+        <v>0.3983064673177127</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8326706449225432</v>
+        <v>0.86594103508776</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>3652</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1141</v>
+        <v>1184</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7308</v>
+        <v>7724</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3415997784951156</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1067802095562256</v>
+        <v>0.1107901285215702</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6836654230748719</v>
+        <v>0.7225207785703097</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2466,19 +2466,19 @@
         <v>11062</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7451</v>
+        <v>7342</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14554</v>
+        <v>14583</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5537544394775492</v>
+        <v>0.5537544394775494</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3730218967965277</v>
+        <v>0.3675551623925142</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7285496509362112</v>
+        <v>0.7300142187289167</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -2487,19 +2487,19 @@
         <v>14714</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9973</v>
+        <v>9877</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19915</v>
+        <v>19644</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4797997456245551</v>
+        <v>0.4797997456245552</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3251991372054567</v>
+        <v>0.3220685137209579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6494231941161409</v>
+        <v>0.6405807354968048</v>
       </c>
     </row>
     <row r="29">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3748</v>
+        <v>4148</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07907023726429593</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3506116334990738</v>
+        <v>0.3880710264159759</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2540,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2945</v>
+        <v>3493</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03456234916620687</v>
+        <v>0.03456234916620688</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1474128220873214</v>
+        <v>0.1748355971141131</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4988</v>
+        <v>4973</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.05007729106328843</v>
+        <v>0.05007729106328844</v>
       </c>
       <c r="V29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1626588941793568</v>
+        <v>0.1621506229515127</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>6193</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2951</v>
+        <v>2759</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9533</v>
+        <v>9372</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5793299842405885</v>
+        <v>0.5793299842405886</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2760086243798656</v>
+        <v>0.2581297876139442</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8917923096321705</v>
+        <v>0.8766877162512045</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2608,19 +2608,19 @@
         <v>8224</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4716</v>
+        <v>4752</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11970</v>
+        <v>12084</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4116832113562438</v>
+        <v>0.4116832113562439</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2360876807073599</v>
+        <v>0.2378958881990272</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5992300795228158</v>
+        <v>0.6049183180616337</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -2629,19 +2629,19 @@
         <v>14417</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9332</v>
+        <v>9697</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19874</v>
+        <v>19662</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4701229633121564</v>
+        <v>0.4701229633121565</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3042979000665665</v>
+        <v>0.3162274284779708</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6480678788431912</v>
+        <v>0.6411542163879909</v>
       </c>
     </row>
     <row r="31">
@@ -2736,16 +2736,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3332</v>
+        <v>3211</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08375384910660247</v>
+        <v>0.08375384910660248</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3855528833749847</v>
+        <v>0.3715555669018164</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2754,19 +2754,19 @@
         <v>2703</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>799</v>
+        <v>706</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4834</v>
+        <v>4268</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5592483974028742</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1653117179060384</v>
+        <v>0.1460649004086895</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>1</v>
+        <v>0.8829380049886265</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2775,19 +2775,19 @@
         <v>3427</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1256</v>
+        <v>1237</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6678</v>
+        <v>6545</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2543059790739016</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09318001662601703</v>
+        <v>0.09176289612969735</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4954852339284109</v>
+        <v>0.4856790187135254</v>
       </c>
     </row>
     <row r="33">
@@ -2807,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4685</v>
+        <v>5082</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.214791425315946</v>
+        <v>0.2147914253159461</v>
       </c>
       <c r="H33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5420188000189006</v>
+        <v>0.5879553449110646</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>3180</v>
+        <v>2498</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1628702669837248</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6578973102767585</v>
+        <v>0.5167749173875882</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3</v>
@@ -2846,19 +2846,19 @@
         <v>2644</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>707</v>
+        <v>745</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>6172</v>
+        <v>6941</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1961681536598173</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05247041407571221</v>
+        <v>0.05528994547292855</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4579361866106776</v>
+        <v>0.5150569940268954</v>
       </c>
     </row>
     <row r="34">
@@ -2875,19 +2875,19 @@
         <v>6063</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3179</v>
+        <v>3155</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7918</v>
+        <v>7921</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7014547255774515</v>
+        <v>0.7014547255774516</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3677582390885387</v>
+        <v>0.3650688174252336</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9161646766850386</v>
+        <v>0.9164615361911517</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3422</v>
+        <v>3440</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.277881335613401</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7078217773535972</v>
+        <v>0.7115968361280244</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -2917,19 +2917,19 @@
         <v>7406</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4305</v>
+        <v>4060</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10294</v>
+        <v>10310</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5495258672662812</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3194245573180274</v>
+        <v>0.3012377950203509</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7638525776479826</v>
+        <v>0.764973167591807</v>
       </c>
     </row>
     <row r="35">
@@ -3021,19 +3021,19 @@
         <v>11077</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6160</v>
+        <v>5863</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18267</v>
+        <v>17611</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1624177337725285</v>
+        <v>0.1624177337725286</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09032338140100926</v>
+        <v>0.08596718803091875</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2678354941045267</v>
+        <v>0.2582119814409502</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>41</v>
@@ -3042,19 +3042,19 @@
         <v>28019</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20766</v>
+        <v>20281</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>34585</v>
+        <v>34707</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4891199644293209</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3625080048591866</v>
+        <v>0.3540381591525344</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6037370297522725</v>
+        <v>0.6058695859242516</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>53</v>
@@ -3063,19 +3063,19 @@
         <v>39096</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30124</v>
+        <v>30558</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>49555</v>
+        <v>49076</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3115574140964154</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2400534201892654</v>
+        <v>0.2435163922212925</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3949002054941945</v>
+        <v>0.3910843180387594</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>8149</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3747</v>
+        <v>4094</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14639</v>
+        <v>14401</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1194840637806505</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05494459270328723</v>
+        <v>0.06003094857060706</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2146403383881753</v>
+        <v>0.2111571919109093</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3113,19 +3113,19 @@
         <v>5941</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3008</v>
+        <v>3141</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10263</v>
+        <v>10275</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1037174251262462</v>
+        <v>0.1037174251262463</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0525078914572854</v>
+        <v>0.05483980713601801</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1791572139125474</v>
+        <v>0.1793682416998463</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -3134,19 +3134,19 @@
         <v>14091</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8659</v>
+        <v>8505</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>21733</v>
+        <v>22444</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1122865878283962</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06899956204097517</v>
+        <v>0.06777428436978089</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1731913072515435</v>
+        <v>0.178852999779441</v>
       </c>
     </row>
     <row r="38">
@@ -3163,19 +3163,19 @@
         <v>48976</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>33</v>
@@ -3184,19 +3184,19 @@
         <v>23324</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>89</v>
@@ -3205,19 +3205,19 @@
         <v>72300</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="39">
